--- a/jett-core/templates/PoiObjectAccessTemplate.xlsx
+++ b/jett-core/templates/PoiObjectAccessTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Number of Sheets: ${workbook.numberOfSheets}</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>${sheet.header.setCenter('JETT Header - Second Sheet')}</t>
+  </si>
+  <si>
+    <t>This Cell is at row ${cell.rowIndex} and column ${cell.columnIndex}.</t>
+  </si>
+  <si>
+    <t>This Cell's text is ${cell.cellStyle.wrapText ? "wrapped." : "not wrapped."}</t>
   </si>
 </sst>
 </file>
@@ -62,8 +68,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,25 +402,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
